--- a/ProvarDemo1/templates/Contacts.xlsx
+++ b/ProvarDemo1/templates/Contacts.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francis.l.m.reyes\Provar\Workspace5\ProvarDemo1\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francis.l.m.reyes\GitHub\ProvarDemo1\ProvarDemo1\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{884B133C-AEFD-4707-BEFE-3D52A76A9CF0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <xr:revisionPtr documentId="13_ncr:1_{68AB1186-6F24-42BA-BC5F-25873C3157CC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{D8C4905F-DB4B-41D7-B3A8-516F979DB716}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{D8C4905F-DB4B-41D7-B3A8-516F979DB716}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" r:id="rId1" sheetId="1"/>
-    <sheet name="Write Contact Details" r:id="rId6" sheetId="2"/>
+    <sheet name="Write Contact Details" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>FirstName</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>0034P00002fDPvKQAW</t>
+    <t>0034P00002fDaNmQAK</t>
   </si>
   <si>
     <t>Name</t>
@@ -97,43 +97,28 @@
     <t>First 1 Last 1</t>
   </si>
   <si>
-    <t>0034P00002fDPvPQAW</t>
+    <t>0034P00002fDaNrQAK</t>
   </si>
   <si>
     <t>First 2 Last 2</t>
   </si>
   <si>
-    <t>0034P00002fDPvUQAW</t>
+    <t>0034P00002fDaNwQAK</t>
   </si>
   <si>
     <t>First 3 Last 3</t>
   </si>
   <si>
-    <t>0034P00002fDPvZQAW</t>
+    <t>0034P00002fDaO1QAK</t>
   </si>
   <si>
     <t>First 4 Last 4</t>
   </si>
   <si>
-    <t>0034P00002fDPveQAG</t>
+    <t>0034P00002fDaO6QAK</t>
   </si>
   <si>
     <t>First 5 Last 5</t>
-  </si>
-  <si>
-    <t>0034P00002fDPvyQAG</t>
-  </si>
-  <si>
-    <t>0034P00002fDPw3QAG</t>
-  </si>
-  <si>
-    <t>0034P00002fDPw8QAG</t>
-  </si>
-  <si>
-    <t>0034P00002fDPwDQAW</t>
-  </si>
-  <si>
-    <t>0034P00002fDPwIQAW</t>
   </si>
 </sst>
 </file>
@@ -576,7 +561,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,18 +670,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.08203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.2421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.359375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.9375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.21484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -721,19 +708,88 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>